--- a/openpyxl-sandbox/asspy/new.xlsx
+++ b/openpyxl-sandbox/asspy/new.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
@@ -49,6 +49,17 @@
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <charset val="128"/>
+      <family val="1"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="3">
@@ -121,6 +132,375 @@
     <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <layout>
+        <manualLayout>
+          <layoutTarget val="inner"/>
+          <xMode val="edge"/>
+          <yMode val="edge"/>
+          <wMode val="factor"/>
+          <hMode val="factor"/>
+          <x val="0.188809002813379"/>
+          <y val="0.0576346474181011"/>
+          <w val="0.81106595811191"/>
+          <h val="0.867184897279289"/>
+        </manualLayout>
+      </layout>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>Sheet!$A$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>id</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <numFmt formatCode="General"/>
+            <txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" spc="-1" strike="noStrike" sz="1000">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </txPr>
+            <dLblPos val="outEnd"/>
+            <showLegendKey val="0"/>
+            <showVal val="0"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <val>
+            <numRef>
+              <f>Sheet!$A$2:$A$5</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>Sheet!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>name</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <numFmt formatCode="General"/>
+            <txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" spc="-1" strike="noStrike" sz="1000">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </txPr>
+            <dLblPos val="outEnd"/>
+            <showLegendKey val="0"/>
+            <showVal val="0"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <val>
+            <numRef>
+              <f>Sheet!$B$2:$B$5</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="4"/>
+                <pt idx="0"/>
+                <pt idx="1"/>
+                <pt idx="2"/>
+                <pt idx="3"/>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>Sheet!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>note</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <numFmt formatCode="General"/>
+            <txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" spc="-1" strike="noStrike" sz="1000">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </txPr>
+            <dLblPos val="outEnd"/>
+            <showLegendKey val="0"/>
+            <showVal val="0"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <val>
+            <numRef>
+              <f>Sheet!$C$2:$C$5</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="4"/>
+                <pt idx="0"/>
+                <pt idx="1"/>
+                <pt idx="2"/>
+                <pt idx="3"/>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="100"/>
+        <overlap val="0"/>
+        <axId val="81892699"/>
+        <axId val="43179635"/>
+      </barChart>
+      <catAx>
+        <axId val="81892699"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="out"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" spc="-1" strike="noStrike" sz="1000">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+          </a:p>
+        </txPr>
+        <crossAx val="43179635"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="43179635"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="0"/>
+        <majorTickMark val="out"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" spc="-1" strike="noStrike" sz="1000">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+          </a:p>
+        </txPr>
+        <crossAx val="81892699"/>
+        <crosses val="autoZero"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+      <txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" spc="-1" strike="noStrike" sz="1000">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+        </a:p>
+      </txPr>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>4</col>
+      <colOff>344880</colOff>
+      <row>0</row>
+      <rowOff>52200</rowOff>
+    </from>
+    <to>
+      <col>14</col>
+      <colOff>140040</colOff>
+      <row>17</row>
+      <rowOff>131400</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,7 +787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
@@ -415,7 +795,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="pageBreakPreview" workbookViewId="0" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110">
-      <selection activeCell="C1" activeCellId="0" pane="topLeft" sqref="A1:C2"/>
+      <selection activeCell="C15" activeCellId="0" pane="topLeft" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
@@ -446,7 +826,7 @@
       </c>
       <c r="B2" s="6" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>bbb</t>
         </is>
       </c>
       <c r="C2" s="6" t="inlineStr">
@@ -504,5 +884,6 @@
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
   <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>